--- a/liste_profiles/UPE-UAP.xlsx
+++ b/liste_profiles/UPE-UAP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\j42875\Desktop\Linear-supports-main\liste_profiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B957ADE-5B2D-400B-9E31-CACE71C7DE4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CB577FB-CE10-4C6E-808F-BBDEF5DE6663}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{748D7E28-AD1B-4ED9-AB64-C4BE955C87AB}"/>
   </bookViews>
@@ -481,7 +481,7 @@
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -497,10 +497,10 @@
         <v>0</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>18</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>19</v>
@@ -517,10 +517,10 @@
         <v>50</v>
       </c>
       <c r="D2" s="1">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1">
         <v>4</v>
-      </c>
-      <c r="E2" s="1">
-        <v>7</v>
       </c>
       <c r="F2" s="1">
         <v>10</v>
@@ -537,10 +537,10 @@
         <v>55</v>
       </c>
       <c r="D3" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="E3" s="1">
         <v>4.5</v>
-      </c>
-      <c r="E3" s="1">
-        <v>7.5</v>
       </c>
       <c r="F3" s="1">
         <v>10</v>
@@ -557,10 +557,10 @@
         <v>60</v>
       </c>
       <c r="D4" s="1">
+        <v>8</v>
+      </c>
+      <c r="E4" s="1">
         <v>5</v>
-      </c>
-      <c r="E4" s="1">
-        <v>8</v>
       </c>
       <c r="F4" s="1">
         <v>12</v>
@@ -577,10 +577,10 @@
         <v>65</v>
       </c>
       <c r="D5" s="1">
+        <v>9</v>
+      </c>
+      <c r="E5" s="1">
         <v>5</v>
-      </c>
-      <c r="E5" s="1">
-        <v>9</v>
       </c>
       <c r="F5" s="1">
         <v>12</v>
@@ -597,10 +597,10 @@
         <v>70</v>
       </c>
       <c r="D6" s="1">
+        <v>9.5</v>
+      </c>
+      <c r="E6" s="1">
         <v>5.5</v>
-      </c>
-      <c r="E6" s="1">
-        <v>9.5</v>
       </c>
       <c r="F6" s="1">
         <v>12</v>
@@ -617,10 +617,10 @@
         <v>75</v>
       </c>
       <c r="D7" s="1">
+        <v>10.5</v>
+      </c>
+      <c r="E7" s="1">
         <v>5.5</v>
-      </c>
-      <c r="E7" s="1">
-        <v>10.5</v>
       </c>
       <c r="F7" s="1">
         <v>12</v>
@@ -637,10 +637,10 @@
         <v>80</v>
       </c>
       <c r="D8" s="1">
+        <v>11</v>
+      </c>
+      <c r="E8" s="1">
         <v>6</v>
-      </c>
-      <c r="E8" s="1">
-        <v>11</v>
       </c>
       <c r="F8" s="1">
         <v>13</v>
@@ -657,10 +657,10 @@
         <v>85</v>
       </c>
       <c r="D9" s="1">
+        <v>12</v>
+      </c>
+      <c r="E9" s="1">
         <v>6.5</v>
-      </c>
-      <c r="E9" s="1">
-        <v>12</v>
       </c>
       <c r="F9" s="1">
         <v>13</v>
@@ -677,10 +677,10 @@
         <v>90</v>
       </c>
       <c r="D10" s="1">
+        <v>12.5</v>
+      </c>
+      <c r="E10" s="1">
         <v>7</v>
-      </c>
-      <c r="E10" s="1">
-        <v>12.5</v>
       </c>
       <c r="F10" s="1">
         <v>15</v>
@@ -697,10 +697,10 @@
         <v>95</v>
       </c>
       <c r="D11" s="1">
+        <v>13.5</v>
+      </c>
+      <c r="E11" s="1">
         <v>7.5</v>
-      </c>
-      <c r="E11" s="1">
-        <v>13.5</v>
       </c>
       <c r="F11" s="1">
         <v>15</v>
@@ -717,10 +717,10 @@
         <v>100</v>
       </c>
       <c r="D12" s="1">
+        <v>15</v>
+      </c>
+      <c r="E12" s="1">
         <v>9.5</v>
-      </c>
-      <c r="E12" s="1">
-        <v>15</v>
       </c>
       <c r="F12" s="1">
         <v>15</v>
@@ -737,10 +737,10 @@
         <v>105</v>
       </c>
       <c r="D13" s="1">
+        <v>16</v>
+      </c>
+      <c r="E13" s="1">
         <v>11</v>
-      </c>
-      <c r="E13" s="1">
-        <v>16</v>
       </c>
       <c r="F13" s="1">
         <v>18</v>
@@ -757,10 +757,10 @@
         <v>110</v>
       </c>
       <c r="D14" s="1">
+        <v>17</v>
+      </c>
+      <c r="E14" s="1">
         <v>12</v>
-      </c>
-      <c r="E14" s="1">
-        <v>17</v>
       </c>
       <c r="F14" s="1">
         <v>18</v>
@@ -777,10 +777,10 @@
         <v>115</v>
       </c>
       <c r="D15" s="1">
+        <v>18</v>
+      </c>
+      <c r="E15" s="1">
         <v>13.5</v>
-      </c>
-      <c r="E15" s="1">
-        <v>18</v>
       </c>
       <c r="F15" s="1">
         <v>18</v>
@@ -797,10 +797,10 @@
         <v>45</v>
       </c>
       <c r="D16" s="2">
+        <v>8</v>
+      </c>
+      <c r="E16" s="2">
         <v>5</v>
-      </c>
-      <c r="E16" s="2">
-        <v>8</v>
       </c>
       <c r="F16" s="2">
         <v>8</v>
@@ -817,10 +817,10 @@
         <v>50</v>
       </c>
       <c r="D17" s="2">
+        <v>8.5</v>
+      </c>
+      <c r="E17" s="2">
         <v>5.5</v>
-      </c>
-      <c r="E17" s="2">
-        <v>8.5</v>
       </c>
       <c r="F17" s="2">
         <v>8.5</v>
@@ -837,10 +837,10 @@
         <v>55</v>
       </c>
       <c r="D18" s="2">
+        <v>9.5</v>
+      </c>
+      <c r="E18" s="2">
         <v>6</v>
-      </c>
-      <c r="E18" s="2">
-        <v>9.5</v>
       </c>
       <c r="F18" s="2">
         <v>9.5</v>
@@ -857,10 +857,10 @@
         <v>65</v>
       </c>
       <c r="D19" s="2">
+        <v>10.3</v>
+      </c>
+      <c r="E19" s="2">
         <v>7</v>
-      </c>
-      <c r="E19" s="2">
-        <v>10.3</v>
       </c>
       <c r="F19" s="2">
         <v>10.3</v>
@@ -877,10 +877,10 @@
         <v>70</v>
       </c>
       <c r="D20" s="2">
+        <v>10.8</v>
+      </c>
+      <c r="E20" s="2">
         <v>7.5</v>
-      </c>
-      <c r="E20" s="2">
-        <v>10.8</v>
       </c>
       <c r="F20" s="2">
         <v>10.8</v>
@@ -897,10 +897,10 @@
         <v>75</v>
       </c>
       <c r="D21" s="2">
+        <v>11.5</v>
+      </c>
+      <c r="E21" s="2">
         <v>8</v>
-      </c>
-      <c r="E21" s="2">
-        <v>11.5</v>
       </c>
       <c r="F21" s="2">
         <v>11.5</v>
@@ -917,10 +917,10 @@
         <v>80</v>
       </c>
       <c r="D22" s="2">
+        <v>12.5</v>
+      </c>
+      <c r="E22" s="2">
         <v>8</v>
-      </c>
-      <c r="E22" s="2">
-        <v>12.5</v>
       </c>
       <c r="F22" s="2">
         <v>12.5</v>
@@ -937,10 +937,10 @@
         <v>85</v>
       </c>
       <c r="D23" s="2">
+        <v>13.5</v>
+      </c>
+      <c r="E23" s="2">
         <v>9</v>
-      </c>
-      <c r="E23" s="2">
-        <v>13.5</v>
       </c>
       <c r="F23" s="2">
         <v>13.5</v>
@@ -957,10 +957,10 @@
         <v>100</v>
       </c>
       <c r="D24" s="2">
+        <v>16</v>
+      </c>
+      <c r="E24" s="2">
         <v>9.5</v>
-      </c>
-      <c r="E24" s="2">
-        <v>16</v>
       </c>
       <c r="F24" s="2">
         <v>16</v>
